--- a/QMU/QMU_app/dataset/zhuangji/zhuangji.xlsx
+++ b/QMU/QMU_app/dataset/zhuangji/zhuangji.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\MyMatlab\QMU\MC3.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\姚方浩\Desktop\QMU_app\dataset\zhuangji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F981A31-70CD-4E03-88BE-CBB90C640FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA5262-4E4F-421D-BAFA-55BBF728FE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="1290" windowWidth="16230" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11235" yWindow="1890" windowWidth="16230" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176:C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -524,7 +524,7 @@
         <v>300</v>
       </c>
       <c r="B10" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -535,7 +535,7 @@
         <v>300</v>
       </c>
       <c r="B11" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -557,7 +557,7 @@
         <v>300</v>
       </c>
       <c r="B13" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -568,7 +568,7 @@
         <v>300</v>
       </c>
       <c r="B14" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -579,10 +579,10 @@
         <v>400</v>
       </c>
       <c r="B15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -590,10 +590,10 @@
         <v>400</v>
       </c>
       <c r="B16" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -601,10 +601,10 @@
         <v>400</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -623,10 +623,10 @@
         <v>400</v>
       </c>
       <c r="B19" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -634,10 +634,10 @@
         <v>400</v>
       </c>
       <c r="B20" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -645,10 +645,10 @@
         <v>500</v>
       </c>
       <c r="B21" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -656,7 +656,7 @@
         <v>500</v>
       </c>
       <c r="B22" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -678,10 +678,10 @@
         <v>500</v>
       </c>
       <c r="B24" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -689,7 +689,7 @@
         <v>500</v>
       </c>
       <c r="B25" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>300</v>
       </c>
       <c r="B76">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>300</v>
       </c>
       <c r="B77">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,7 +1274,7 @@
         <v>300</v>
       </c>
       <c r="B78">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1285,7 +1285,7 @@
         <v>300</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>300</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>300</v>
       </c>
       <c r="B81">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1318,10 +1318,10 @@
         <v>300</v>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1329,10 +1329,10 @@
         <v>300</v>
       </c>
       <c r="B83">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1340,7 +1340,7 @@
         <v>300</v>
       </c>
       <c r="B84">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>300</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1362,7 +1362,7 @@
         <v>300</v>
       </c>
       <c r="B86">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1373,7 +1373,7 @@
         <v>300</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>300</v>
       </c>
       <c r="B88">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
         <v>300</v>
       </c>
       <c r="B89">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>300</v>
       </c>
       <c r="B90">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>300</v>
       </c>
       <c r="B91">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1428,7 +1428,7 @@
         <v>300</v>
       </c>
       <c r="B92">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
         <v>300</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>300</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>300</v>
       </c>
       <c r="B96">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1483,10 +1483,10 @@
         <v>300</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -1494,10 +1494,10 @@
         <v>300</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -1505,7 +1505,7 @@
         <v>300</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1516,10 +1516,10 @@
         <v>300</v>
       </c>
       <c r="B100">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -1527,10 +1527,10 @@
         <v>300</v>
       </c>
       <c r="B101">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -1538,7 +1538,7 @@
         <v>300</v>
       </c>
       <c r="B102">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1549,10 +1549,10 @@
         <v>300</v>
       </c>
       <c r="B103">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -1560,10 +1560,10 @@
         <v>300</v>
       </c>
       <c r="B104">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -1571,10 +1571,10 @@
         <v>300</v>
       </c>
       <c r="B105">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -1582,7 +1582,7 @@
         <v>300</v>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>300</v>
       </c>
       <c r="B107">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -1604,7 +1604,7 @@
         <v>300</v>
       </c>
       <c r="B108">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -1626,7 +1626,7 @@
         <v>300</v>
       </c>
       <c r="B110">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -1648,7 +1648,7 @@
         <v>300</v>
       </c>
       <c r="B112">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>300</v>
       </c>
       <c r="B113">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -1670,10 +1670,10 @@
         <v>300</v>
       </c>
       <c r="B114">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -1681,10 +1681,10 @@
         <v>300</v>
       </c>
       <c r="B115">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -1692,7 +1692,7 @@
         <v>300</v>
       </c>
       <c r="B116">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -1714,10 +1714,10 @@
         <v>300</v>
       </c>
       <c r="B118">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -1725,7 +1725,7 @@
         <v>300</v>
       </c>
       <c r="B119">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -1736,10 +1736,10 @@
         <v>300</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -1758,7 +1758,7 @@
         <v>300</v>
       </c>
       <c r="B122">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -1780,10 +1780,10 @@
         <v>300</v>
       </c>
       <c r="B124">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -1791,7 +1791,7 @@
         <v>300</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -1802,10 +1802,10 @@
         <v>400</v>
       </c>
       <c r="B126">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -1813,10 +1813,10 @@
         <v>400</v>
       </c>
       <c r="B127">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -1824,7 +1824,7 @@
         <v>400</v>
       </c>
       <c r="B128">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -1846,7 +1846,7 @@
         <v>400</v>
       </c>
       <c r="B130">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -1868,10 +1868,10 @@
         <v>400</v>
       </c>
       <c r="B132">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -1879,10 +1879,10 @@
         <v>400</v>
       </c>
       <c r="B133">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -1890,10 +1890,10 @@
         <v>400</v>
       </c>
       <c r="B134">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -1901,10 +1901,10 @@
         <v>400</v>
       </c>
       <c r="B135">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -1912,10 +1912,10 @@
         <v>400</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -1923,10 +1923,10 @@
         <v>400</v>
       </c>
       <c r="B137">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -1934,10 +1934,10 @@
         <v>400</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -1945,10 +1945,10 @@
         <v>400</v>
       </c>
       <c r="B139">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -1956,10 +1956,10 @@
         <v>400</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -1967,10 +1967,10 @@
         <v>400</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -1978,7 +1978,7 @@
         <v>400</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -2000,7 +2000,7 @@
         <v>400</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -2014,7 +2014,7 @@
         <v>6</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2022,10 +2022,10 @@
         <v>400</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2044,10 +2044,10 @@
         <v>400</v>
       </c>
       <c r="B148">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2055,10 +2055,10 @@
         <v>400</v>
       </c>
       <c r="B149">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2066,10 +2066,10 @@
         <v>400</v>
       </c>
       <c r="B150">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2077,7 +2077,7 @@
         <v>400</v>
       </c>
       <c r="B151">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2088,7 +2088,7 @@
         <v>400</v>
       </c>
       <c r="B152">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2099,10 +2099,10 @@
         <v>400</v>
       </c>
       <c r="B153">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2110,10 +2110,10 @@
         <v>400</v>
       </c>
       <c r="B154">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2121,10 +2121,10 @@
         <v>400</v>
       </c>
       <c r="B155">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2132,7 +2132,7 @@
         <v>400</v>
       </c>
       <c r="B156">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>400</v>
       </c>
       <c r="B157">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -2154,7 +2154,7 @@
         <v>400</v>
       </c>
       <c r="B158">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>400</v>
       </c>
       <c r="B159">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2176,7 +2176,7 @@
         <v>400</v>
       </c>
       <c r="B160">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -2187,7 +2187,7 @@
         <v>400</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>400</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -2209,10 +2209,10 @@
         <v>400</v>
       </c>
       <c r="B163">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2220,7 +2220,7 @@
         <v>400</v>
       </c>
       <c r="B164">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>400</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -2242,10 +2242,10 @@
         <v>400</v>
       </c>
       <c r="B166">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2253,10 +2253,10 @@
         <v>400</v>
       </c>
       <c r="B167">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2264,10 +2264,10 @@
         <v>400</v>
       </c>
       <c r="B168">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2275,7 +2275,7 @@
         <v>400</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>400</v>
       </c>
       <c r="B170">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -2297,10 +2297,10 @@
         <v>400</v>
       </c>
       <c r="B171">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2308,7 +2308,7 @@
         <v>400</v>
       </c>
       <c r="B172">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>6</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -2330,10 +2330,10 @@
         <v>400</v>
       </c>
       <c r="B174">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -2344,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -2355,7 +2355,7 @@
         <v>2.5</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -2363,7 +2363,7 @@
         <v>500</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -2374,7 +2374,7 @@
         <v>500</v>
       </c>
       <c r="B178">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>500</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -2399,7 +2399,7 @@
         <v>2.5</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -2407,7 +2407,7 @@
         <v>500</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -2418,7 +2418,7 @@
         <v>500</v>
       </c>
       <c r="B182">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -2429,10 +2429,10 @@
         <v>500</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -2443,7 +2443,7 @@
         <v>2.5</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -2451,10 +2451,10 @@
         <v>500</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -2487,7 +2487,7 @@
         <v>2.5</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -2495,10 +2495,10 @@
         <v>500</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -2509,7 +2509,7 @@
         <v>2.5</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -2517,10 +2517,10 @@
         <v>500</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2531,7 +2531,7 @@
         <v>2.5</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -2539,10 +2539,10 @@
         <v>500</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -2553,7 +2553,7 @@
         <v>2.5</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -2561,7 +2561,7 @@
         <v>500</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -2572,10 +2572,10 @@
         <v>500</v>
       </c>
       <c r="B196">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -2619,7 +2619,7 @@
         <v>2.5</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -2627,10 +2627,10 @@
         <v>500</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -2641,7 +2641,7 @@
         <v>2.5</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -2649,10 +2649,10 @@
         <v>500</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -2663,7 +2663,7 @@
         <v>2.5</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -2671,10 +2671,10 @@
         <v>500</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
         <v>2.5</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -2693,10 +2693,10 @@
         <v>500</v>
       </c>
       <c r="B207">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -2751,7 +2751,7 @@
         <v>2.5</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -2759,10 +2759,10 @@
         <v>500</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -2795,7 +2795,7 @@
         <v>2.5</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -2803,10 +2803,10 @@
         <v>500</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -2817,7 +2817,7 @@
         <v>2.5</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -2825,10 +2825,10 @@
         <v>500</v>
       </c>
       <c r="B219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -2839,7 +2839,7 @@
         <v>2.5</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -2847,10 +2847,10 @@
         <v>500</v>
       </c>
       <c r="B221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -2872,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -2880,10 +2880,10 @@
         <v>500</v>
       </c>
       <c r="B224">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
